--- a/Software Design & Total Experience/PRECIFICACAO_TOKITO_TECKS.xlsx
+++ b/Software Design & Total Experience/PRECIFICACAO_TOKITO_TECKS.xlsx
@@ -1,32 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\55119\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\logonrmlocal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9F962924-FA7D-4573-A615-CA87A4CEB859}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830FD5C6-8D1D-4AB8-B3E8-1F9479DF1932}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{803244F1-3F5D-4F8D-BEBC-A269EE85A3B9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{803244F1-3F5D-4F8D-BEBC-A269EE85A3B9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>Luz</t>
   </si>
@@ -67,9 +76,6 @@
     <t>TOTAL DE DESPESAS FIXAS</t>
   </si>
   <si>
-    <t>TOTAL DE HORAS TÉCNICAS</t>
-  </si>
-  <si>
     <t>preco da hora técnica</t>
   </si>
   <si>
@@ -80,6 +86,12 @@
   </si>
   <si>
     <t>Despesas Infraestrutura</t>
+  </si>
+  <si>
+    <t>Salário</t>
+  </si>
+  <si>
+    <t>TOTAL DE HORAS TÉCNICAS/MÊS</t>
   </si>
 </sst>
 </file>
@@ -87,8 +99,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="2">
-    <numFmt numFmtId="44" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="164" formatCode="_([$BRL]\ * #,##0.00_);_([$BRL]\ * \(#,##0.00\);_([$BRL]\ * &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_-&quot;R$&quot;\ * #,##0.00_-;\-&quot;R$&quot;\ * #,##0.00_-;_-&quot;R$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="_([$BRL]\ * #,##0.00_);_([$BRL]\ * \(#,##0.00\);_([$BRL]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -156,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -165,41 +177,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7030A0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7030A0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7030A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7030A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color rgb="FF7030A0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF7030A0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF7030A0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF7030A0"/>
       </left>
@@ -211,17 +188,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FF7030A0"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF7030A0"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF7030A0"/>
       </left>
@@ -237,55 +203,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7030A0"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF7030A0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7030A0"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7030A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF7030A0"/>
       </left>
       <right style="thin">
-        <color rgb="FF7030A0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7030A0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF7030A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7030A0"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7030A0"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7030A0"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF7030A0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7030A0"/>
-      </left>
-      <right style="medium">
         <color rgb="FF7030A0"/>
       </right>
       <top style="thin">
@@ -334,50 +255,122 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7030A0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="FF7030A0"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF7030A0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7030A0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -385,22 +378,57 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="13" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="14" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -452,7 +480,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="164" formatCode="_([$BRL]\ * #,##0.00_);_([$BRL]\ * \(#,##0.00\);_([$BRL]\ * &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_([$BRL]\ * #,##0.00_);_([$BRL]\ * \(#,##0.00\);_([$BRL]\ * &quot;-&quot;??_);_(@_)"/>
     </dxf>
     <dxf>
       <font>
@@ -552,7 +580,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>129540</xdr:colOff>
+      <xdr:colOff>81915</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>121121</xdr:rowOff>
     </xdr:to>
@@ -658,8 +686,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{15AB9EBE-CCA5-4ED2-8219-52A9D4817BEF}" name="Tabela2" displayName="Tabela2" ref="B11:C18" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="B11:C18" xr:uid="{15AB9EBE-CCA5-4ED2-8219-52A9D4817BEF}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{15AB9EBE-CCA5-4ED2-8219-52A9D4817BEF}" name="Tabela2" displayName="Tabela2" ref="B11:C19" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="B11:C19" xr:uid="{15AB9EBE-CCA5-4ED2-8219-52A9D4817BEF}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{CA40742C-615F-422F-A846-62512B3110D3}" name="Despesas Infraestrutura" dataDxfId="2"/>
     <tableColumn id="2" xr3:uid="{52ED9947-40AF-4167-B169-1D96D1B12881}" name="Valores" dataDxfId="1"/>
@@ -680,7 +708,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -976,194 +1004,204 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCC211A-B5B2-4597-BAA8-CD643FB2C38F}">
-  <dimension ref="B2:F24"/>
+  <dimension ref="B2:F25"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F12" activeCellId="1" sqref="C18 F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="32.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="29.77734375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.77734375" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="30.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
     <col min="8" max="8" width="24" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="E10" s="30"/>
-    </row>
-    <row r="11" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="20" t="s">
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
+      <c r="C11" s="10" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="5"/>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="F11" s="31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="21" t="s">
+      <c r="F11" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="21"/>
+      <c r="C12" s="11"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="32" t="s">
+      <c r="E12" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="15">
         <v>2295</v>
       </c>
     </row>
-    <row r="13" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B13" s="22" t="s">
+    <row r="13" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="13">
         <v>20</v>
       </c>
       <c r="D13" s="5"/>
-      <c r="E13" s="22" t="s">
+      <c r="E13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="23">
+      <c r="F13" s="13">
         <f>(20*22)</f>
         <v>440</v>
       </c>
     </row>
-    <row r="14" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B14" s="24" t="s">
+    <row r="14" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="25">
+      <c r="C14" s="15">
         <v>50</v>
       </c>
       <c r="D14" s="5"/>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="15">
         <v>120</v>
       </c>
     </row>
-    <row r="15" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="22" t="s">
+    <row r="15" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B15" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="13">
         <v>50</v>
       </c>
       <c r="D15" s="5"/>
-      <c r="E15" s="27" t="s">
+      <c r="E15" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="18">
         <f>SUM(F12:F14)</f>
         <v>2855</v>
       </c>
     </row>
-    <row r="16" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="24" t="s">
+    <row r="16" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B16" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C16" s="25">
+      <c r="C16" s="15">
         <v>30</v>
       </c>
       <c r="D16" s="5"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="29"/>
-    </row>
-    <row r="17" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="22" t="s">
+      <c r="E16" s="23"/>
+      <c r="F16" s="19"/>
+    </row>
+    <row r="17" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="13">
         <v>50</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6"/>
     </row>
-    <row r="18" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C18" s="26">
-        <f>SUM(C13:C17)</f>
-        <v>200</v>
+    <row r="18" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="36">
+        <v>3000</v>
       </c>
       <c r="D18" s="5"/>
       <c r="E18" s="5"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="2:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="8" t="s">
+    <row r="19" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" s="16">
+        <f>SUM(C13:C18)</f>
+        <v>3200</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="10">
-        <f>F15+C18</f>
-        <v>3055</v>
-      </c>
-      <c r="E21" s="11"/>
-    </row>
-    <row r="22" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="14" t="s">
+      <c r="C22" s="34">
+        <f>F15+C19</f>
+        <v>6055</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+    </row>
+    <row r="23" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B23" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="24">
+        <v>144</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26"/>
+    </row>
+    <row r="24" spans="2:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13">
-        <v>144</v>
-      </c>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="2:6" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="14" t="s">
+      <c r="C24" s="27">
+        <f>C22/C23</f>
+        <v>42.048611111111114</v>
+      </c>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="2:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="13">
-        <f>D21/D22</f>
-        <v>21.215277777777779</v>
-      </c>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="2:6" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18">
-        <f>D23*1.4</f>
-        <v>29.701388888888889</v>
-      </c>
-      <c r="E24" s="19"/>
+      <c r="C25" s="30">
+        <f>C24*1.35</f>
+        <v>56.765625000000007</v>
+      </c>
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B21:C21"/>
+  <mergeCells count="4">
+    <mergeCell ref="C23:E23"/>
+    <mergeCell ref="C24:E24"/>
+    <mergeCell ref="C25:E25"/>
+    <mergeCell ref="C22:E22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1181,7 +1219,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
